--- a/apps/load_data/2014/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2014/03/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2014\HHY0314\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY ACTUALIZADOS\2014\HHY0314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B1DA3A-C3B1-4276-B065-9D9C01A71C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797B126-F86D-40AE-8B52-F7C92D862822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$265</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$229</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11011" uniqueCount="2372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11010" uniqueCount="2371">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6314,9 +6315,6 @@
   </si>
   <si>
     <t>048561</t>
-  </si>
-  <si>
-    <t>RD-456-2010-HNHU</t>
   </si>
   <si>
     <t>1001      500000000000001002      378000000000001005         400000000001007       50100000000001021     2150600000000001022     2494700000000001031     2893800000000001033    13012700000000001039     6200000000000001042     300000000000000</t>
@@ -7631,7 +7629,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7639,6 +7637,11 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7996,8 +7999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248:XFD265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8014,10 +8017,10 @@
     <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="45.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
@@ -42811,7 +42814,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>84</v>
       </c>
@@ -42996,7 +42999,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>84</v>
       </c>
@@ -43172,7 +43175,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>84</v>
       </c>
@@ -43342,7 +43345,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>84</v>
       </c>
@@ -43500,7 +43503,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>84</v>
       </c>
@@ -43658,7 +43661,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>84</v>
       </c>
@@ -43816,7 +43819,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>84</v>
       </c>
@@ -43974,195 +43977,213 @@
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G200" s="1" t="s">
+      <c r="F200" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G200" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H200" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="I200" s="8" t="s">
         <v>2095</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="J200" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K200" s="1" t="s">
+      <c r="K200" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="L200" s="8" t="s">
         <v>2096</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="M200" s="8" t="s">
         <v>1990</v>
       </c>
-      <c r="N200" s="1" t="s">
+      <c r="N200" s="8" t="s">
         <v>1565</v>
       </c>
-      <c r="Q200" s="3">
+      <c r="O200" s="8"/>
+      <c r="P200" s="8"/>
+      <c r="Q200" s="9">
         <v>20980</v>
       </c>
-      <c r="R200" s="1" t="s">
+      <c r="R200" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="S200" s="3">
+      <c r="S200" s="9">
         <v>38078</v>
       </c>
-      <c r="T200" s="1" t="s">
+      <c r="T200" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="V200" s="1" t="s">
+      <c r="V200" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Y200" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z200" s="2">
+      <c r="W200" s="8"/>
+      <c r="X200" s="8"/>
+      <c r="Y200" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="11">
         <v>20</v>
       </c>
-      <c r="AA200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB200" s="1" t="s">
+      <c r="AA200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB200" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="AC200" s="3">
+      <c r="AC200" s="9">
         <v>40544</v>
       </c>
-      <c r="AD200" s="1" t="s">
+      <c r="AD200" s="8"/>
+      <c r="AF200" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG200" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="AH200" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="AI200" s="8"/>
+      <c r="AJ200" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN200" s="8"/>
+      <c r="AO200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP200" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ200" s="8"/>
+      <c r="AR200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV200" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW200" s="8"/>
+      <c r="AX200" s="8"/>
+      <c r="AY200" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ200" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BA200" s="8"/>
+      <c r="BB200" s="8">
+        <v>8</v>
+      </c>
+      <c r="BC200" s="8">
+        <v>11</v>
+      </c>
+      <c r="BD200" s="8"/>
+      <c r="BE200" s="8"/>
+      <c r="BF200" s="8"/>
+      <c r="BG200" s="8"/>
+      <c r="BH200" s="8" t="s">
         <v>2097</v>
       </c>
-      <c r="AF200" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG200" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AH200" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="AJ200" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP200" s="1" t="s">
+      <c r="BI200" s="8" t="s">
+        <v>2098</v>
+      </c>
+      <c r="BJ200" s="8" t="s">
+        <v>2099</v>
+      </c>
+      <c r="BK200" s="8"/>
+      <c r="BL200" s="8"/>
+      <c r="BM200" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN200" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO200" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BP200" s="8"/>
+      <c r="BQ200" s="8"/>
+      <c r="BR200" s="8" t="s">
+        <v>1569</v>
+      </c>
+      <c r="BS200" s="9">
+        <v>38132</v>
+      </c>
+      <c r="BT200" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BU200" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV200" s="8"/>
+      <c r="BW200" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="BX200" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY200" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AR200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY200" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ200" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="BB200" s="1">
-        <v>8</v>
-      </c>
-      <c r="BC200" s="1">
-        <v>11</v>
-      </c>
-      <c r="BH200" s="1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2099</v>
-      </c>
-      <c r="BJ200" s="1" t="s">
+      <c r="BZ200" s="8" t="s">
         <v>2100</v>
       </c>
-      <c r="BM200" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN200" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO200" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BR200" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="BS200" s="3">
-        <v>38132</v>
-      </c>
-      <c r="BT200" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="BU200" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW200" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="BX200" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY200" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ200" s="1" t="s">
-        <v>2101</v>
-      </c>
-      <c r="CA200" s="1" t="s">
+      <c r="CA200" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="CB200" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC200" s="1" t="s">
+      <c r="CB200" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC200" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CD200" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CE200" s="8" t="s">
         <v>1573</v>
       </c>
+      <c r="CF200" s="8"/>
     </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>84</v>
       </c>
@@ -44188,22 +44209,22 @@
         <v>91</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2103</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>2104</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="Q201" s="3">
         <v>27336</v>
@@ -44236,7 +44257,7 @@
         <v>41244</v>
       </c>
       <c r="AD201" s="1" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AF201" s="1" t="s">
         <v>104</v>
@@ -44284,13 +44305,13 @@
         <v>98</v>
       </c>
       <c r="AZ201" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="BH201" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2107</v>
-      </c>
-      <c r="BH201" s="1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2108</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>115</v>
@@ -44302,13 +44323,13 @@
         <v>116</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="BS201" s="3">
         <v>36347</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>119</v>
@@ -44323,7 +44344,7 @@
         <v>108</v>
       </c>
       <c r="BZ201" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="CA201" s="1" t="s">
         <v>121</v>
@@ -44332,16 +44353,16 @@
         <v>98</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2112</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="CE201" s="1" t="s">
-        <v>2114</v>
-      </c>
     </row>
-    <row r="202" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>84</v>
       </c>
@@ -44373,16 +44394,16 @@
         <v>93</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2115</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>2116</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="Q202" s="3">
         <v>21430</v>
@@ -44418,7 +44439,7 @@
         <v>41330</v>
       </c>
       <c r="AD202" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AF202" s="1" t="s">
         <v>104</v>
@@ -44469,10 +44490,10 @@
         <v>98</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2119</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2120</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>115</v>
@@ -44481,7 +44502,7 @@
         <v>103</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>119</v>
@@ -44505,16 +44526,16 @@
         <v>98</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="CE202" s="1" t="s">
-        <v>2124</v>
-      </c>
     </row>
-    <row r="203" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>84</v>
       </c>
@@ -44546,16 +44567,16 @@
         <v>93</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2115</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2116</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="Q203" s="3">
         <v>21430</v>
@@ -44591,7 +44612,7 @@
         <v>41330</v>
       </c>
       <c r="AD203" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AF203" s="1" t="s">
         <v>104</v>
@@ -44642,10 +44663,10 @@
         <v>98</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BI203" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>115</v>
@@ -44654,7 +44675,7 @@
         <v>103</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>119</v>
@@ -44678,16 +44699,16 @@
         <v>98</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="CE203" s="1" t="s">
-        <v>2124</v>
-      </c>
     </row>
-    <row r="204" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>84</v>
       </c>
@@ -44719,16 +44740,16 @@
         <v>93</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2126</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2127</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="Q204" s="3">
         <v>21965</v>
@@ -44758,13 +44779,13 @@
         <v>0</v>
       </c>
       <c r="AB204" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AC204" s="3">
         <v>41579</v>
       </c>
       <c r="AD204" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="AF204" s="1" t="s">
         <v>104</v>
@@ -44812,13 +44833,13 @@
         <v>98</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="BD204" s="1" t="s">
         <v>99</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>115</v>
@@ -44830,13 +44851,13 @@
         <v>214</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="BS204" s="3">
         <v>35087</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>119</v>
@@ -44857,16 +44878,16 @@
         <v>98</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>1619</v>
       </c>
       <c r="CE204" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
-    <row r="205" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>84</v>
       </c>
@@ -44898,13 +44919,13 @@
         <v>93</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2138</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2139</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>97</v>
@@ -44982,7 +45003,7 @@
         <v>98</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BB205" s="1">
         <v>3</v>
@@ -45003,10 +45024,10 @@
         <v>112</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2141</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2142</v>
       </c>
       <c r="BM205" s="1" t="s">
         <v>115</v>
@@ -45018,13 +45039,13 @@
         <v>214</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="BS205" s="3">
         <v>39189</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>119</v>
@@ -45051,13 +45072,13 @@
         <v>246</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="CE205" s="1" t="s">
-        <v>2146</v>
-      </c>
     </row>
-    <row r="206" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>84</v>
       </c>
@@ -45089,13 +45110,13 @@
         <v>93</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2148</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2149</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>97</v>
@@ -45176,7 +45197,7 @@
         <v>98</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BB206" s="1">
         <v>3</v>
@@ -45197,10 +45218,10 @@
         <v>112</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2151</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2152</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>115</v>
@@ -45212,13 +45233,13 @@
         <v>99</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BS206" s="3">
         <v>37286</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>119</v>
@@ -45248,10 +45269,10 @@
         <v>2070</v>
       </c>
       <c r="CE206" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
-    <row r="207" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>84</v>
       </c>
@@ -45283,13 +45304,13 @@
         <v>93</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>97</v>
@@ -45370,7 +45391,7 @@
         <v>98</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BB207" s="1">
         <v>3</v>
@@ -45388,10 +45409,10 @@
         <v>112</v>
       </c>
       <c r="BH207" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BI207" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="BI207" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>115</v>
@@ -45403,13 +45424,13 @@
         <v>214</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BS207" s="3">
         <v>37421</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>119</v>
@@ -45433,16 +45454,16 @@
         <v>98</v>
       </c>
       <c r="CC207" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="CD207" s="1" t="s">
         <v>506</v>
       </c>
       <c r="CE207" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
-    <row r="208" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>84</v>
       </c>
@@ -45474,13 +45495,13 @@
         <v>93</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>97</v>
@@ -45564,7 +45585,7 @@
         <v>98</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BB208" s="1">
         <v>3</v>
@@ -45582,10 +45603,10 @@
         <v>112</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>115</v>
@@ -45594,7 +45615,7 @@
         <v>103</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>119</v>
@@ -45618,13 +45639,13 @@
         <v>98</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="CE208" s="1" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="209" spans="1:83" x14ac:dyDescent="0.25">
@@ -45659,13 +45680,13 @@
         <v>93</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2177</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>97</v>
@@ -45746,7 +45767,7 @@
         <v>98</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BB209" s="1">
         <v>3</v>
@@ -45764,10 +45785,10 @@
         <v>112</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="BI209" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>115</v>
@@ -45779,13 +45800,13 @@
         <v>214</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BS209" s="3">
         <v>35215</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>119</v>
@@ -45809,13 +45830,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2184</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45850,13 +45871,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2187</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45940,7 +45961,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BB210" s="1">
         <v>3</v>
@@ -45958,7 +45979,7 @@
         <v>112</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>115</v>
@@ -45970,13 +45991,13 @@
         <v>214</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BS210" s="3">
         <v>35178</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>119</v>
@@ -46000,13 +46021,13 @@
         <v>89</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -46023,7 +46044,7 @@
         <v>126</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>89</v>
@@ -46041,10 +46062,10 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2196</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>2197</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -46113,7 +46134,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>121</v>
@@ -46125,7 +46146,7 @@
         <v>610</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46133,10 +46154,10 @@
         <v>84</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>613</v>
@@ -46151,7 +46172,7 @@
         <v>90</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>613</v>
@@ -46160,13 +46181,13 @@
         <v>655</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -46223,7 +46244,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="AO212" s="1">
         <v>0</v>
@@ -46268,13 +46289,13 @@
         <v>112</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>119</v>
@@ -46295,13 +46316,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46309,10 +46330,10 @@
         <v>84</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>613</v>
@@ -46327,7 +46348,7 @@
         <v>90</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>613</v>
@@ -46336,13 +46357,13 @@
         <v>655</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2213</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46396,7 +46417,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AO213" s="1">
         <v>0</v>
@@ -46441,13 +46462,13 @@
         <v>112</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>119</v>
@@ -46474,7 +46495,7 @@
         <v>1097</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46482,10 +46503,10 @@
         <v>84</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>613</v>
@@ -46500,7 +46521,7 @@
         <v>90</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>613</v>
@@ -46509,13 +46530,13 @@
         <v>655</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46569,7 +46590,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="AO214" s="1">
         <v>0</v>
@@ -46614,13 +46635,13 @@
         <v>112</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>119</v>
@@ -46641,13 +46662,13 @@
         <v>89</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46655,10 +46676,10 @@
         <v>84</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>613</v>
@@ -46673,7 +46694,7 @@
         <v>90</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>613</v>
@@ -46682,13 +46703,13 @@
         <v>655</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46742,7 +46763,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="AO215" s="1">
         <v>0</v>
@@ -46787,13 +46808,13 @@
         <v>112</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>119</v>
@@ -46814,13 +46835,13 @@
         <v>89</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2234</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46828,10 +46849,10 @@
         <v>84</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>613</v>
@@ -46846,7 +46867,7 @@
         <v>90</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>613</v>
@@ -46855,13 +46876,13 @@
         <v>655</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2238</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46960,13 +46981,13 @@
         <v>112</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>119</v>
@@ -46987,7 +47008,7 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="CD216" s="1" t="s">
         <v>653</v>
@@ -47001,10 +47022,10 @@
         <v>84</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>613</v>
@@ -47019,7 +47040,7 @@
         <v>90</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>613</v>
@@ -47028,13 +47049,13 @@
         <v>655</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2243</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -47130,13 +47151,13 @@
         <v>112</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>119</v>
@@ -47157,13 +47178,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2247</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47171,10 +47192,10 @@
         <v>84</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>613</v>
@@ -47189,7 +47210,7 @@
         <v>90</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>613</v>
@@ -47198,13 +47219,13 @@
         <v>655</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2250</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2251</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -47258,7 +47279,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="AO218" s="1">
         <v>0</v>
@@ -47303,13 +47324,13 @@
         <v>112</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>119</v>
@@ -47333,10 +47354,10 @@
         <v>1231</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47344,10 +47365,10 @@
         <v>84</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>613</v>
@@ -47362,7 +47383,7 @@
         <v>90</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>613</v>
@@ -47371,13 +47392,13 @@
         <v>655</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47476,13 +47497,13 @@
         <v>112</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>119</v>
@@ -47506,7 +47527,7 @@
         <v>1898</v>
       </c>
       <c r="CD219" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="CE219" s="1" t="s">
         <v>206</v>
@@ -47517,10 +47538,10 @@
         <v>84</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>613</v>
@@ -47535,7 +47556,7 @@
         <v>90</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>613</v>
@@ -47544,13 +47565,13 @@
         <v>655</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47607,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="AO220" s="1">
         <v>0</v>
@@ -47652,13 +47673,13 @@
         <v>112</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>119</v>
@@ -47682,10 +47703,10 @@
         <v>541</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47693,10 +47714,10 @@
         <v>84</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>613</v>
@@ -47711,7 +47732,7 @@
         <v>90</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>613</v>
@@ -47720,13 +47741,13 @@
         <v>655</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2273</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47825,13 +47846,13 @@
         <v>112</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>119</v>
@@ -47852,13 +47873,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>672</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47866,10 +47887,10 @@
         <v>84</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>613</v>
@@ -47884,7 +47905,7 @@
         <v>90</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>613</v>
@@ -47893,13 +47914,13 @@
         <v>655</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2280</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47956,7 +47977,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48001,13 +48022,13 @@
         <v>112</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>119</v>
@@ -48028,13 +48049,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48042,10 +48063,10 @@
         <v>84</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>613</v>
@@ -48060,7 +48081,7 @@
         <v>90</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>613</v>
@@ -48069,13 +48090,13 @@
         <v>655</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2287</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2288</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -48174,13 +48195,13 @@
         <v>112</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>119</v>
@@ -48201,13 +48222,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="CD223" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="CE223" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2292</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48242,13 +48263,13 @@
         <v>93</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48290,7 +48311,7 @@
         <v>1188</v>
       </c>
       <c r="AH224" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AI224" s="1" t="s">
         <v>98</v>
@@ -48350,13 +48371,13 @@
         <v>112</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>119</v>
@@ -48380,13 +48401,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -48421,13 +48442,13 @@
         <v>93</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48463,10 +48484,10 @@
         <v>104</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AH225" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AI225" s="1" t="s">
         <v>98</v>
@@ -48526,13 +48547,13 @@
         <v>112</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>119</v>
@@ -48553,13 +48574,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48594,13 +48615,13 @@
         <v>93</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48639,7 +48660,7 @@
         <v>700</v>
       </c>
       <c r="AH226" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AI226" s="1" t="s">
         <v>98</v>
@@ -48699,13 +48720,13 @@
         <v>112</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>119</v>
@@ -48729,13 +48750,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>518</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48770,16 +48791,16 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2317</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2318</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="Q227" s="3">
         <v>20242</v>
@@ -48809,7 +48830,7 @@
         <v>40726</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>251</v>
@@ -48857,13 +48878,13 @@
         <v>98</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="BH227" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="BH227" s="1" t="s">
+      <c r="BI227" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>115</v>
@@ -48875,13 +48896,13 @@
         <v>214</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BS227" s="3">
         <v>34200</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>119</v>
@@ -48908,7 +48929,7 @@
         <v>123</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48925,7 +48946,7 @@
         <v>126</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>89</v>
@@ -48943,16 +48964,16 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="Q228" s="3">
         <v>20242</v>
@@ -49036,10 +49057,10 @@
         <v>98</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>115</v>
@@ -49048,13 +49069,13 @@
         <v>214</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BS228" s="3">
         <v>34200</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>119</v>
@@ -49069,7 +49090,7 @@
         <v>108</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>121</v>
@@ -49084,7 +49105,7 @@
         <v>123</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49101,7 +49122,7 @@
         <v>305</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>98</v>
@@ -49119,13 +49140,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -49164,7 +49185,7 @@
         <v>1400</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AJ229" s="1" t="s">
         <v>107</v>
@@ -49221,7 +49242,7 @@
         <v>112</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>115</v>
@@ -49230,13 +49251,13 @@
         <v>116</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BS229" s="3">
         <v>34292</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>119</v>
@@ -49248,7 +49269,7 @@
         <v>108</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>121</v>
@@ -49257,7 +49278,7 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>1817</v>
@@ -49280,7 +49301,7 @@
         <v>305</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>98</v>
@@ -49310,7 +49331,7 @@
         <v>97</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="Q230" s="3">
         <v>20508</v>
@@ -49406,7 +49427,7 @@
         <v>112</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>115</v>
@@ -49433,7 +49454,7 @@
         <v>108</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>121</v>
@@ -49465,7 +49486,7 @@
         <v>220</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>98</v>
@@ -49477,7 +49498,7 @@
         <v>91</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>93</v>
@@ -49495,7 +49516,7 @@
         <v>97</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="Q231" s="3">
         <v>20665</v>
@@ -49591,7 +49612,7 @@
         <v>112</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>115</v>
@@ -49615,7 +49636,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>121</v>
@@ -49647,7 +49668,7 @@
         <v>305</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>98</v>
@@ -49677,7 +49698,7 @@
         <v>97</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="Q232" s="3">
         <v>24031</v>
@@ -49773,7 +49794,7 @@
         <v>112</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>115</v>
@@ -49800,7 +49821,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>121</v>
@@ -49832,7 +49853,7 @@
         <v>305</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>98</v>
@@ -49862,7 +49883,7 @@
         <v>97</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="Q233" s="3">
         <v>20324</v>
@@ -49955,7 +49976,7 @@
         <v>112</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>115</v>
@@ -49979,7 +50000,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>121</v>
@@ -50011,7 +50032,7 @@
         <v>220</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>98</v>
@@ -50023,7 +50044,7 @@
         <v>91</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>93</v>
@@ -50041,7 +50062,7 @@
         <v>97</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="Q234" s="3">
         <v>24576</v>
@@ -50137,7 +50158,7 @@
         <v>112</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>115</v>
@@ -50167,7 +50188,7 @@
         <v>108</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>121</v>
@@ -50199,7 +50220,7 @@
         <v>305</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>98</v>
@@ -50229,7 +50250,7 @@
         <v>97</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="Q235" s="3">
         <v>24849</v>
@@ -50325,7 +50346,7 @@
         <v>112</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>115</v>
@@ -50355,7 +50376,7 @@
         <v>108</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>121</v>
@@ -50387,7 +50408,7 @@
         <v>220</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>98</v>
@@ -50399,7 +50420,7 @@
         <v>91</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>93</v>
@@ -50417,7 +50438,7 @@
         <v>97</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="Q236" s="3">
         <v>22715</v>
@@ -50513,7 +50534,7 @@
         <v>112</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>115</v>
@@ -50543,7 +50564,7 @@
         <v>108</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>121</v>
@@ -50575,7 +50596,7 @@
         <v>305</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>98</v>
@@ -50605,7 +50626,7 @@
         <v>97</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="Q237" s="3">
         <v>25450</v>
@@ -50698,7 +50719,7 @@
         <v>112</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>115</v>
@@ -50725,7 +50746,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>121</v>
@@ -50757,7 +50778,7 @@
         <v>305</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>98</v>
@@ -50787,7 +50808,7 @@
         <v>97</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="Q238" s="3">
         <v>26157</v>
@@ -50883,7 +50904,7 @@
         <v>112</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>115</v>
@@ -50913,7 +50934,7 @@
         <v>108</v>
       </c>
       <c r="BZ238" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA238" s="1" t="s">
         <v>121</v>
@@ -50945,7 +50966,7 @@
         <v>305</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>98</v>
@@ -50975,7 +50996,7 @@
         <v>97</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="Q239" s="3">
         <v>24733</v>
@@ -51068,7 +51089,7 @@
         <v>112</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>115</v>
@@ -51086,7 +51107,7 @@
         <v>108</v>
       </c>
       <c r="BZ239" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA239" s="1" t="s">
         <v>121</v>
@@ -51118,7 +51139,7 @@
         <v>305</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>98</v>
@@ -51148,7 +51169,7 @@
         <v>97</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="Q240" s="3">
         <v>25186</v>
@@ -51244,7 +51265,7 @@
         <v>112</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>115</v>
@@ -51271,7 +51292,7 @@
         <v>108</v>
       </c>
       <c r="BZ240" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA240" s="1" t="s">
         <v>121</v>
@@ -51303,7 +51324,7 @@
         <v>305</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>98</v>
@@ -51333,7 +51354,7 @@
         <v>97</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="Q241" s="3">
         <v>25656</v>
@@ -51423,7 +51444,7 @@
         <v>112</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>115</v>
@@ -51447,7 +51468,7 @@
         <v>0</v>
       </c>
       <c r="BZ241" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA241" s="1" t="s">
         <v>121</v>
@@ -51479,7 +51500,7 @@
         <v>305</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>98</v>
@@ -51509,7 +51530,7 @@
         <v>97</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="Q242" s="3">
         <v>27443</v>
@@ -51596,7 +51617,7 @@
         <v>112</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>115</v>
@@ -51623,7 +51644,7 @@
         <v>0</v>
       </c>
       <c r="BZ242" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA242" s="1" t="s">
         <v>121</v>
@@ -51655,7 +51676,7 @@
         <v>305</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>98</v>
@@ -51673,19 +51694,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2138</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2139</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="Q243" s="3">
         <v>23859</v>
@@ -51760,7 +51781,7 @@
         <v>98</v>
       </c>
       <c r="AZ243" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BA243" s="1" t="s">
         <v>232</v>
@@ -51778,7 +51799,7 @@
         <v>112</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>115</v>
@@ -51787,13 +51808,13 @@
         <v>214</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="BS243" s="3">
         <v>39189</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>119</v>
@@ -51808,7 +51829,7 @@
         <v>108</v>
       </c>
       <c r="BZ243" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA243" s="1" t="s">
         <v>121</v>
@@ -51820,10 +51841,10 @@
         <v>246</v>
       </c>
       <c r="CD243" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="CE243" s="1" t="s">
         <v>2145</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="244" spans="1:84" x14ac:dyDescent="0.25">
@@ -51840,7 +51861,7 @@
         <v>305</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>98</v>
@@ -51858,19 +51879,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2148</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2149</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="Q244" s="3">
         <v>25865</v>
@@ -51948,7 +51969,7 @@
         <v>98</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BA244" s="1" t="s">
         <v>232</v>
@@ -51966,7 +51987,7 @@
         <v>112</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>115</v>
@@ -51975,13 +51996,13 @@
         <v>99</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BS244" s="3">
         <v>37286</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>119</v>
@@ -51996,7 +52017,7 @@
         <v>108</v>
       </c>
       <c r="BZ244" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA244" s="1" t="s">
         <v>121</v>
@@ -52011,7 +52032,7 @@
         <v>2070</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="245" spans="1:84" x14ac:dyDescent="0.25">
@@ -52028,7 +52049,7 @@
         <v>305</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>98</v>
@@ -52046,19 +52067,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="Q245" s="3">
         <v>24813</v>
@@ -52139,7 +52160,7 @@
         <v>98</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BA245" s="1" t="s">
         <v>232</v>
@@ -52154,13 +52175,13 @@
         <v>112</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>119</v>
@@ -52175,7 +52196,7 @@
         <v>108</v>
       </c>
       <c r="BZ245" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA245" s="1" t="s">
         <v>121</v>
@@ -52184,13 +52205,13 @@
         <v>98</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CD245" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CE245" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="246" spans="1:84" x14ac:dyDescent="0.25">
@@ -52207,7 +52228,7 @@
         <v>305</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>98</v>
@@ -52225,19 +52246,19 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2177</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="Q246" s="3">
         <v>25721</v>
@@ -52315,7 +52336,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BA246" s="1" t="s">
         <v>232</v>
@@ -52330,7 +52351,7 @@
         <v>112</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>115</v>
@@ -52339,13 +52360,13 @@
         <v>214</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BS246" s="3">
         <v>35215</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>119</v>
@@ -52360,7 +52381,7 @@
         <v>108</v>
       </c>
       <c r="BZ246" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA246" s="1" t="s">
         <v>121</v>
@@ -52369,13 +52390,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2184</v>
       </c>
     </row>
     <row r="247" spans="1:84" x14ac:dyDescent="0.25">
@@ -52383,10 +52404,10 @@
         <v>84</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>613</v>
@@ -52401,7 +52422,7 @@
         <v>90</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>613</v>
@@ -52410,19 +52431,19 @@
         <v>655</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2273</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="Q247" s="3">
         <v>27702</v>
@@ -52512,13 +52533,13 @@
         <v>112</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>119</v>
@@ -52539,13 +52560,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>672</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="248" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -52562,7 +52583,7 @@
         <v>305</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>98</v>
@@ -52593,15 +52614,15 @@
         <v>97</v>
       </c>
       <c r="P248" s="4" t="s">
-        <v>2337</v>
-      </c>
-      <c r="Q248" s="5">
+        <v>2336</v>
+      </c>
+      <c r="Q248" s="7">
         <v>20508</v>
       </c>
       <c r="R248" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S248" s="5">
+      <c r="S248" s="7">
         <v>35603</v>
       </c>
       <c r="T248" s="4" t="s">
@@ -52698,7 +52719,7 @@
         <v>112</v>
       </c>
       <c r="BH248" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BI248" s="4"/>
       <c r="BJ248" s="4"/>
@@ -52734,7 +52755,7 @@
         <v>108</v>
       </c>
       <c r="BZ248" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA248" s="4" t="s">
         <v>121</v>
@@ -52767,7 +52788,7 @@
         <v>220</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>98</v>
@@ -52779,7 +52800,7 @@
         <v>91</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>93</v>
@@ -52798,15 +52819,15 @@
         <v>97</v>
       </c>
       <c r="P249" s="4" t="s">
-        <v>2341</v>
-      </c>
-      <c r="Q249" s="5">
+        <v>2340</v>
+      </c>
+      <c r="Q249" s="7">
         <v>20665</v>
       </c>
       <c r="R249" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S249" s="5">
+      <c r="S249" s="7">
         <v>34894</v>
       </c>
       <c r="T249" s="4" t="s">
@@ -52904,7 +52925,7 @@
         <v>112</v>
       </c>
       <c r="BH249" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BI249" s="4"/>
       <c r="BJ249" s="4"/>
@@ -52938,7 +52959,7 @@
       </c>
       <c r="BY249" s="4"/>
       <c r="BZ249" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CA249" s="4" t="s">
         <v>121</v>
@@ -52971,7 +52992,7 @@
         <v>305</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>98</v>
@@ -53002,15 +53023,15 @@
         <v>97</v>
       </c>
       <c r="P250" s="4" t="s">
-        <v>2344</v>
-      </c>
-      <c r="Q250" s="5">
+        <v>2343</v>
+      </c>
+      <c r="Q250" s="7">
         <v>24031</v>
       </c>
       <c r="R250" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S250" s="5">
+      <c r="S250" s="7">
         <v>35019</v>
       </c>
       <c r="T250" s="4" t="s">
@@ -53108,7 +53129,7 @@
         <v>112</v>
       </c>
       <c r="BH250" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BI250" s="4"/>
       <c r="BJ250" s="4"/>
@@ -53144,7 +53165,7 @@
       </c>
       <c r="BY250" s="4"/>
       <c r="BZ250" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA250" s="4" t="s">
         <v>121</v>
@@ -53177,7 +53198,7 @@
         <v>305</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>98</v>
@@ -53208,15 +53229,15 @@
         <v>97</v>
       </c>
       <c r="P251" s="4" t="s">
-        <v>2346</v>
-      </c>
-      <c r="Q251" s="5">
+        <v>2345</v>
+      </c>
+      <c r="Q251" s="7">
         <v>20324</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S251" s="5">
+      <c r="S251" s="7">
         <v>35090</v>
       </c>
       <c r="T251" s="4" t="s">
@@ -53311,7 +53332,7 @@
         <v>112</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -53345,7 +53366,7 @@
       </c>
       <c r="BY251" s="4"/>
       <c r="BZ251" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA251" s="4" t="s">
         <v>121</v>
@@ -53378,7 +53399,7 @@
         <v>220</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>98</v>
@@ -53390,7 +53411,7 @@
         <v>91</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J252" s="4" t="s">
         <v>93</v>
@@ -53409,15 +53430,15 @@
         <v>97</v>
       </c>
       <c r="P252" s="4" t="s">
-        <v>2348</v>
-      </c>
-      <c r="Q252" s="5">
+        <v>2347</v>
+      </c>
+      <c r="Q252" s="7">
         <v>24576</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S252" s="5">
+      <c r="S252" s="7">
         <v>35034</v>
       </c>
       <c r="T252" s="4" t="s">
@@ -53515,7 +53536,7 @@
         <v>112</v>
       </c>
       <c r="BH252" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BI252" s="4"/>
       <c r="BJ252" s="4"/>
@@ -53553,7 +53574,7 @@
         <v>108</v>
       </c>
       <c r="BZ252" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CA252" s="4" t="s">
         <v>121</v>
@@ -53586,7 +53607,7 @@
         <v>305</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>98</v>
@@ -53617,15 +53638,15 @@
         <v>97</v>
       </c>
       <c r="P253" s="4" t="s">
-        <v>2349</v>
-      </c>
-      <c r="Q253" s="5">
+        <v>2348</v>
+      </c>
+      <c r="Q253" s="7">
         <v>24849</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S253" s="5">
+      <c r="S253" s="7">
         <v>37229</v>
       </c>
       <c r="T253" s="4" t="s">
@@ -53723,7 +53744,7 @@
         <v>112</v>
       </c>
       <c r="BH253" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BI253" s="4"/>
       <c r="BJ253" s="4"/>
@@ -53761,7 +53782,7 @@
         <v>108</v>
       </c>
       <c r="BZ253" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA253" s="4" t="s">
         <v>121</v>
@@ -53794,7 +53815,7 @@
         <v>220</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>98</v>
@@ -53806,7 +53827,7 @@
         <v>91</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J254" s="4" t="s">
         <v>93</v>
@@ -53825,15 +53846,15 @@
         <v>97</v>
       </c>
       <c r="P254" s="4" t="s">
-        <v>2351</v>
-      </c>
-      <c r="Q254" s="5">
+        <v>2350</v>
+      </c>
+      <c r="Q254" s="7">
         <v>22715</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S254" s="5">
+      <c r="S254" s="7">
         <v>36342</v>
       </c>
       <c r="T254" s="4" t="s">
@@ -53931,7 +53952,7 @@
         <v>112</v>
       </c>
       <c r="BH254" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BI254" s="4"/>
       <c r="BJ254" s="4"/>
@@ -53969,7 +53990,7 @@
         <v>108</v>
       </c>
       <c r="BZ254" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CA254" s="4" t="s">
         <v>121</v>
@@ -54002,7 +54023,7 @@
         <v>305</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>98</v>
@@ -54033,15 +54054,15 @@
         <v>97</v>
       </c>
       <c r="P255" s="4" t="s">
-        <v>2352</v>
-      </c>
-      <c r="Q255" s="5">
+        <v>2351</v>
+      </c>
+      <c r="Q255" s="7">
         <v>25450</v>
       </c>
       <c r="R255" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S255" s="5">
+      <c r="S255" s="7">
         <v>36800</v>
       </c>
       <c r="T255" s="4" t="s">
@@ -54136,7 +54157,7 @@
         <v>112</v>
       </c>
       <c r="BH255" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BI255" s="4"/>
       <c r="BJ255" s="4"/>
@@ -54172,7 +54193,7 @@
       </c>
       <c r="BY255" s="4"/>
       <c r="BZ255" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA255" s="4" t="s">
         <v>121</v>
@@ -54205,7 +54226,7 @@
         <v>305</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>98</v>
@@ -54236,15 +54257,15 @@
         <v>97</v>
       </c>
       <c r="P256" s="4" t="s">
-        <v>2354</v>
-      </c>
-      <c r="Q256" s="5">
+        <v>2353</v>
+      </c>
+      <c r="Q256" s="7">
         <v>26157</v>
       </c>
       <c r="R256" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S256" s="5">
+      <c r="S256" s="7">
         <v>36924</v>
       </c>
       <c r="T256" s="4" t="s">
@@ -54342,7 +54363,7 @@
         <v>112</v>
       </c>
       <c r="BH256" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BI256" s="4"/>
       <c r="BJ256" s="4"/>
@@ -54380,7 +54401,7 @@
         <v>108</v>
       </c>
       <c r="BZ256" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA256" s="4" t="s">
         <v>121</v>
@@ -54413,7 +54434,7 @@
         <v>305</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>98</v>
@@ -54444,15 +54465,15 @@
         <v>97</v>
       </c>
       <c r="P257" s="4" t="s">
-        <v>2356</v>
-      </c>
-      <c r="Q257" s="5">
+        <v>2355</v>
+      </c>
+      <c r="Q257" s="7">
         <v>24733</v>
       </c>
       <c r="R257" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S257" s="5">
+      <c r="S257" s="7">
         <v>41051</v>
       </c>
       <c r="T257" s="4" t="s">
@@ -54548,7 +54569,7 @@
         <v>112</v>
       </c>
       <c r="BH257" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BI257" s="4"/>
       <c r="BJ257" s="4"/>
@@ -54577,7 +54598,7 @@
         <v>108</v>
       </c>
       <c r="BZ257" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA257" s="4" t="s">
         <v>121</v>
@@ -54610,7 +54631,7 @@
         <v>305</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>98</v>
@@ -54641,15 +54662,15 @@
         <v>97</v>
       </c>
       <c r="P258" s="4" t="s">
-        <v>2358</v>
-      </c>
-      <c r="Q258" s="5">
+        <v>2357</v>
+      </c>
+      <c r="Q258" s="7">
         <v>25186</v>
       </c>
       <c r="R258" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S258" s="5">
+      <c r="S258" s="7">
         <v>38322</v>
       </c>
       <c r="T258" s="4" t="s">
@@ -54747,7 +54768,7 @@
         <v>112</v>
       </c>
       <c r="BH258" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI258" s="4"/>
       <c r="BJ258" s="4"/>
@@ -54783,7 +54804,7 @@
         <v>108</v>
       </c>
       <c r="BZ258" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA258" s="4" t="s">
         <v>121</v>
@@ -54816,7 +54837,7 @@
         <v>305</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>98</v>
@@ -54847,15 +54868,15 @@
         <v>97</v>
       </c>
       <c r="P259" s="4" t="s">
-        <v>2360</v>
-      </c>
-      <c r="Q259" s="5">
+        <v>2359</v>
+      </c>
+      <c r="Q259" s="7">
         <v>25656</v>
       </c>
       <c r="R259" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S259" s="5">
+      <c r="S259" s="7">
         <v>41470</v>
       </c>
       <c r="T259" s="4" t="s">
@@ -54948,7 +54969,7 @@
         <v>112</v>
       </c>
       <c r="BH259" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI259" s="4"/>
       <c r="BJ259" s="4"/>
@@ -54982,7 +55003,7 @@
       </c>
       <c r="BY259" s="4"/>
       <c r="BZ259" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA259" s="4" t="s">
         <v>121</v>
@@ -55015,7 +55036,7 @@
         <v>305</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>98</v>
@@ -55046,15 +55067,15 @@
         <v>97</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>2362</v>
-      </c>
-      <c r="Q260" s="5">
+        <v>2361</v>
+      </c>
+      <c r="Q260" s="7">
         <v>27443</v>
       </c>
       <c r="R260" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S260" s="5">
+      <c r="S260" s="7">
         <v>41470</v>
       </c>
       <c r="T260" s="4" t="s">
@@ -55145,7 +55166,7 @@
         <v>112</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -55181,7 +55202,7 @@
       </c>
       <c r="BY260" s="4"/>
       <c r="BZ260" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA260" s="4" t="s">
         <v>121</v>
@@ -55214,7 +55235,7 @@
         <v>305</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>98</v>
@@ -55232,28 +55253,28 @@
         <v>93</v>
       </c>
       <c r="K261" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L261" s="4" t="s">
         <v>2137</v>
-      </c>
-      <c r="L261" s="4" t="s">
-        <v>2138</v>
       </c>
       <c r="M261" s="4"/>
       <c r="N261" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="O261" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P261" s="4" t="s">
-        <v>2363</v>
-      </c>
-      <c r="Q261" s="5">
+        <v>2362</v>
+      </c>
+      <c r="Q261" s="7">
         <v>23859</v>
       </c>
       <c r="R261" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S261" s="5">
+      <c r="S261" s="7">
         <v>41671</v>
       </c>
       <c r="T261" s="4" t="s">
@@ -55329,7 +55350,7 @@
         <v>98</v>
       </c>
       <c r="AZ261" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BA261" s="4" t="s">
         <v>232</v>
@@ -55349,7 +55370,7 @@
         <v>112</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -55365,13 +55386,13 @@
       <c r="BP261" s="4"/>
       <c r="BQ261" s="4"/>
       <c r="BR261" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="BS261" s="5">
         <v>39189</v>
       </c>
       <c r="BT261" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="BU261" s="4" t="s">
         <v>119</v>
@@ -55387,7 +55408,7 @@
         <v>108</v>
       </c>
       <c r="BZ261" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA261" s="4" t="s">
         <v>121</v>
@@ -55399,10 +55420,10 @@
         <v>246</v>
       </c>
       <c r="CD261" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="CE261" s="4" t="s">
         <v>2145</v>
-      </c>
-      <c r="CE261" s="4" t="s">
-        <v>2146</v>
       </c>
       <c r="CF261" s="4"/>
     </row>
@@ -55420,7 +55441,7 @@
         <v>305</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>98</v>
@@ -55438,28 +55459,28 @@
         <v>93</v>
       </c>
       <c r="K262" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="L262" s="4" t="s">
         <v>2147</v>
-      </c>
-      <c r="L262" s="4" t="s">
-        <v>2148</v>
       </c>
       <c r="M262" s="4"/>
       <c r="N262" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="O262" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P262" s="4" t="s">
-        <v>2364</v>
-      </c>
-      <c r="Q262" s="5">
+        <v>2363</v>
+      </c>
+      <c r="Q262" s="7">
         <v>25865</v>
       </c>
       <c r="R262" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S262" s="5">
+      <c r="S262" s="7">
         <v>39605</v>
       </c>
       <c r="T262" s="4" t="s">
@@ -55538,7 +55559,7 @@
         <v>98</v>
       </c>
       <c r="AZ262" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BA262" s="4" t="s">
         <v>232</v>
@@ -55558,7 +55579,7 @@
         <v>112</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -55574,13 +55595,13 @@
       <c r="BP262" s="4"/>
       <c r="BQ262" s="4"/>
       <c r="BR262" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BS262" s="5">
         <v>37286</v>
       </c>
       <c r="BT262" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BU262" s="4" t="s">
         <v>119</v>
@@ -55596,7 +55617,7 @@
         <v>108</v>
       </c>
       <c r="BZ262" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA262" s="4" t="s">
         <v>121</v>
@@ -55611,7 +55632,7 @@
         <v>2070</v>
       </c>
       <c r="CE262" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="CF262" s="4"/>
     </row>
@@ -55629,7 +55650,7 @@
         <v>305</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>98</v>
@@ -55647,28 +55668,28 @@
         <v>93</v>
       </c>
       <c r="K263" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L263" s="4" t="s">
         <v>2166</v>
-      </c>
-      <c r="L263" s="4" t="s">
-        <v>2167</v>
       </c>
       <c r="M263" s="4"/>
       <c r="N263" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="O263" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P263" s="4" t="s">
-        <v>2366</v>
-      </c>
-      <c r="Q263" s="5">
+        <v>2365</v>
+      </c>
+      <c r="Q263" s="7">
         <v>24813</v>
       </c>
       <c r="R263" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S263" s="5">
+      <c r="S263" s="7">
         <v>39833</v>
       </c>
       <c r="T263" s="4" t="s">
@@ -55749,7 +55770,7 @@
         <v>98</v>
       </c>
       <c r="AZ263" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BA263" s="4" t="s">
         <v>232</v>
@@ -55767,7 +55788,7 @@
         <v>112</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -55782,7 +55803,7 @@
       <c r="BQ263" s="4"/>
       <c r="BR263" s="4"/>
       <c r="BT263" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BU263" s="4" t="s">
         <v>119</v>
@@ -55798,7 +55819,7 @@
         <v>108</v>
       </c>
       <c r="BZ263" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA263" s="4" t="s">
         <v>121</v>
@@ -55807,13 +55828,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CD263" s="4" t="s">
         <v>2172</v>
       </c>
-      <c r="CD263" s="4" t="s">
+      <c r="CE263" s="4" t="s">
         <v>2173</v>
-      </c>
-      <c r="CE263" s="4" t="s">
-        <v>2174</v>
       </c>
       <c r="CF263" s="4"/>
     </row>
@@ -55831,7 +55852,7 @@
         <v>305</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>98</v>
@@ -55849,28 +55870,28 @@
         <v>93</v>
       </c>
       <c r="K264" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L264" s="4" t="s">
         <v>2175</v>
-      </c>
-      <c r="L264" s="4" t="s">
-        <v>2176</v>
       </c>
       <c r="M264" s="4"/>
       <c r="N264" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P264" s="4" t="s">
-        <v>2368</v>
-      </c>
-      <c r="Q264" s="5">
+        <v>2367</v>
+      </c>
+      <c r="Q264" s="7">
         <v>25721</v>
       </c>
       <c r="R264" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S264" s="5">
+      <c r="S264" s="7">
         <v>39980</v>
       </c>
       <c r="T264" s="4" t="s">
@@ -55949,7 +55970,7 @@
         <v>98</v>
       </c>
       <c r="AZ264" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BA264" s="4" t="s">
         <v>232</v>
@@ -55967,7 +55988,7 @@
         <v>112</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -55983,13 +56004,13 @@
       <c r="BP264" s="4"/>
       <c r="BQ264" s="4"/>
       <c r="BR264" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BS264" s="5">
         <v>35215</v>
       </c>
       <c r="BT264" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BU264" s="4" t="s">
         <v>119</v>
@@ -56005,7 +56026,7 @@
         <v>108</v>
       </c>
       <c r="BZ264" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CA264" s="4" t="s">
         <v>121</v>
@@ -56014,13 +56035,13 @@
         <v>98</v>
       </c>
       <c r="CC264" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="CD264" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="CD264" s="4" t="s">
+      <c r="CE264" s="4" t="s">
         <v>2183</v>
-      </c>
-      <c r="CE264" s="4" t="s">
-        <v>2184</v>
       </c>
       <c r="CF264" s="4"/>
     </row>
@@ -56029,10 +56050,10 @@
         <v>84</v>
       </c>
       <c r="B265" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>2199</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>2200</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>613</v>
@@ -56047,7 +56068,7 @@
         <v>90</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I265" s="4" t="s">
         <v>613</v>
@@ -56056,28 +56077,28 @@
         <v>655</v>
       </c>
       <c r="K265" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L265" s="4" t="s">
         <v>2271</v>
-      </c>
-      <c r="L265" s="4" t="s">
-        <v>2272</v>
       </c>
       <c r="M265" s="4"/>
       <c r="N265" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="O265" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P265" s="4" t="s">
-        <v>2370</v>
-      </c>
-      <c r="Q265" s="5">
+        <v>2369</v>
+      </c>
+      <c r="Q265" s="7">
         <v>27702</v>
       </c>
       <c r="R265" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S265" s="5">
+      <c r="S265" s="7">
         <v>37987</v>
       </c>
       <c r="T265" s="4" t="s">
@@ -56171,7 +56192,7 @@
         <v>112</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -56186,7 +56207,7 @@
       <c r="BQ265" s="4"/>
       <c r="BR265" s="4"/>
       <c r="BT265" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BU265" s="4" t="s">
         <v>119</v>
@@ -56209,17 +56230,18 @@
         <v>98</v>
       </c>
       <c r="CC265" s="4" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="CD265" s="4" t="s">
         <v>672</v>
       </c>
       <c r="CE265" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="CF265" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF265" xr:uid="{325DFB61-E9DF-4C54-B877-0813DDE6F113}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>